--- a/V and Hlookup.xlsx
+++ b/V and Hlookup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UseR\Documents\Data Analytics\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UseR\Documents\Data Analytics\Excell\Lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159A32D8-E6B5-40ED-9F3E-CA28EA61732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10281129-7FA5-4EAA-9B81-3C0E1F78A51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLookup" sheetId="14" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>Employee ID</t>
   </si>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">Ex:1 </t>
   </si>
   <si>
-    <t>Using Employee ID with the help of Vlookup wehave find Emp Data</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
@@ -89,6 +86,297 @@
   </si>
   <si>
     <t>QA</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>P-1001</t>
+  </si>
+  <si>
+    <t>Wireless Mouse</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>P-1002</t>
+  </si>
+  <si>
+    <t>Mechanical Keyboard</t>
+  </si>
+  <si>
+    <t>P-1003</t>
+  </si>
+  <si>
+    <t>Laptop Stand</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>P-1004</t>
+  </si>
+  <si>
+    <t>USB-C Hub</t>
+  </si>
+  <si>
+    <t>P-1005</t>
+  </si>
+  <si>
+    <t>P-1006</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Whiteboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Vlookup Table</t>
+  </si>
+  <si>
+    <t>Info Table 1</t>
+  </si>
+  <si>
+    <t>Ex:2</t>
+  </si>
+  <si>
+    <t>Hlookup table</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Last Order Date</t>
+  </si>
+  <si>
+    <t>C-584</t>
+  </si>
+  <si>
+    <t>C-585</t>
+  </si>
+  <si>
+    <t>C-586</t>
+  </si>
+  <si>
+    <t>C-587</t>
+  </si>
+  <si>
+    <t>C-588</t>
+  </si>
+  <si>
+    <t>Ex:3</t>
+  </si>
+  <si>
+    <t>Ram Boase</t>
+  </si>
+  <si>
+    <t>Jessica Gorge</t>
+  </si>
+  <si>
+    <t>Tonny Bakre</t>
+  </si>
+  <si>
+    <t>Latika mishra</t>
+  </si>
+  <si>
+    <t>Aman Varma</t>
+  </si>
+  <si>
+    <t>ram.b@gmail.com</t>
+  </si>
+  <si>
+    <t>aman.v@gmail.com</t>
+  </si>
+  <si>
+    <t>jessica.g@gmail.com</t>
+  </si>
+  <si>
+    <t>tonny.b@gmail.com</t>
+  </si>
+  <si>
+    <t>latika.m@gmail.com</t>
+  </si>
+  <si>
+    <t>Market place</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Wall Clock</t>
+  </si>
+  <si>
+    <t>Solimo Store</t>
+  </si>
+  <si>
+    <t>Flipcard</t>
+  </si>
+  <si>
+    <t>Wardrobe</t>
+  </si>
+  <si>
+    <t>Green Soul</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>T- Shirts</t>
+  </si>
+  <si>
+    <t>Safety First</t>
+  </si>
+  <si>
+    <t>Ajio</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Peter England</t>
+  </si>
+  <si>
+    <t>Messho</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Tools Corp</t>
+  </si>
+  <si>
+    <t>Ex:4</t>
+  </si>
+  <si>
+    <t>Ex:5</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Alex Johnson</t>
+  </si>
+  <si>
+    <t>History 101</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Maria Garcia</t>
+  </si>
+  <si>
+    <t>Chemistry 102</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ben Carter</t>
+  </si>
+  <si>
+    <t>English 103</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Liam Chen</t>
+  </si>
+  <si>
+    <t>Mathematics 104</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>Sarah Jones</t>
+  </si>
+  <si>
+    <t>Biology 105</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>Ex-2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1st Shift</t>
+  </si>
+  <si>
+    <t>2nd Shift</t>
+  </si>
+  <si>
+    <t>3rd Shift</t>
+  </si>
+  <si>
+    <t>Ex-3</t>
   </si>
 </sst>
 </file>
@@ -96,9 +384,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$₹-4009]\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="[$₹-4009]\ #,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +394,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +440,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,11 +476,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,15 +516,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,248 +845,947 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A40DD5A-2EA0-453B-B205-8D25B7B6EF10}">
-  <dimension ref="C1:L9"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>65000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>104</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>VLOOKUP(F4,A$4:D$9,2,)</f>
+        <v>Ritu Nayar</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(F4,A$4:D$9,3,)</f>
+        <v>Human Resources</v>
+      </c>
+      <c r="I4" s="8">
+        <f>VLOOKUP(F4,A$4:D$9,4,)</f>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>72000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>106</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>VLOOKUP(F5,A$4:D$9,2,)</f>
+        <v>Devika Raout</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>VLOOKUP(F5,A$4:D$9,3,)</f>
+        <v>Testing</v>
+      </c>
+      <c r="I5" s="8">
+        <f>VLOOKUP(F5,A$4:D$9,4,)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
+      <c r="D6" s="4">
+        <v>85000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>VLOOKUP(F6,A$4:D$9,2,)</f>
+        <v>Ramesh Kumar</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>VLOOKUP(F6,A$4:D$9,3,)</f>
+        <v>Development</v>
+      </c>
+      <c r="I6" s="8">
+        <f>VLOOKUP(F6,A$4:D$9,4,)</f>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>68000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>VLOOKUP(F7,A$4:D$9,2,)</f>
+        <v>Amrita Boas</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>VLOOKUP(F7,A$4:D$9,3,)</f>
+        <v>Marketing</v>
+      </c>
+      <c r="I7" s="8">
+        <f>VLOOKUP(F7,A$4:D$9,4,)</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>71000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>105</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>VLOOKUP(F8,A$4:D$9,2,)</f>
+        <v>Rachna Vyas</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>VLOOKUP(F8,A$4:D$9,3,)</f>
+        <v>Sales</v>
+      </c>
+      <c r="I8" s="8">
+        <f>VLOOKUP(F8,A$4:D$9,4,)</f>
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>90000</v>
+      </c>
+      <c r="F9" s="3">
         <v>101</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="G9" s="1" t="str">
+        <f>VLOOKUP(F9,A$4:D$9,2,)</f>
+        <v>Jay Thakre</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>VLOOKUP(F9,A$4:D$9,3,)</f>
+        <v>QA</v>
+      </c>
+      <c r="I9" s="8">
+        <f>VLOOKUP(F9,A$4:D$9,4,)</f>
         <v>65000</v>
       </c>
-      <c r="I4" s="3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>150</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>VLOOKUP(F14,$A$13:$D$19,2,)</f>
+        <v>Laptop Stand</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>VLOOKUP(F14,$A$13:$D$19,3,)</f>
+        <v>Accessories</v>
+      </c>
+      <c r="I14" s="8">
+        <f>VLOOKUP(F14,$A$13:$D$19,4,)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" ref="G15:G19" si="0">VLOOKUP(F15,$A$13:$D$19,2,)</f>
+        <v>Whiteboard</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" ref="H15:H19" si="1">VLOOKUP(F15,$A$13:$D$19,3,)</f>
+        <v>Furniture</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15:I19" si="2">VLOOKUP(F15,$A$13:$D$19,4,)</f>
+        <v>199.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4">
+        <v>120</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mechanical Keyboard</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Electronics</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45.99</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Wireless Mouse</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Electronics</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4">
+        <v>360</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>USB-C Hub</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Electronics</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="2"/>
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4">
+        <v>199.99</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Table </v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Furniture</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="13">
+        <v>45884</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f>VLOOKUP(F25,$A$24:$D$29,2,)</f>
+        <v>Tonny Bakre</v>
+      </c>
+      <c r="H25" s="16">
+        <f>VLOOKUP(F25,$A$24:$D$29,4,)</f>
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="13">
+        <v>45902</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="15" t="str">
+        <f t="shared" ref="G26:G29" si="3">VLOOKUP(F26,$A$24:$D$29,2,)</f>
+        <v>Aman Varma</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" ref="H26:H29" si="4">VLOOKUP(F26,$A$24:$D$29,4,)</f>
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="13">
+        <v>45920</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Latika mishra</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="4"/>
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="13">
+        <v>45922</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Ram Boase</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="4"/>
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="13">
+        <v>45923</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>Jessica Gorge</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="4"/>
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="17">
+        <v>50</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="15">
+        <f>VLOOKUP(F33,$A$32:$D$37,3,)</f>
+        <v>75</v>
+      </c>
+      <c r="H33" s="15" t="str">
+        <f>VLOOKUP(F33,$A$32:$D$37,2,)</f>
+        <v>T- Shirts</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="17">
+        <v>125</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" ref="G34:G37" si="5">VLOOKUP(F34,$A$32:$D$37,3,)</f>
+        <v>200</v>
+      </c>
+      <c r="H34" s="15" t="str">
+        <f t="shared" ref="H34:H37" si="6">VLOOKUP(F34,$A$32:$D$37,2,)</f>
+        <v>Shirts</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="17">
+        <v>75</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H35" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>Hammer</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="17">
+        <v>200</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="H36" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>Wall Clock</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="17">
+        <v>60</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="H37" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>Wardrobe</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>7421</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="15">
+        <v>7425</v>
+      </c>
+      <c r="G42" s="19" t="str">
+        <f>VLOOKUP(F42,$A$41:$D$46,2,)</f>
+        <v>Sarah Jones</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>VLOOKUP(F42,$A$41:$D$46,4,)</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>7422</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="15">
+        <v>7424</v>
+      </c>
+      <c r="G43" s="19" t="str">
+        <f t="shared" ref="G43:G46" si="7">VLOOKUP(F43,$A$41:$D$46,2,)</f>
+        <v>Liam Chen</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f t="shared" ref="H43:H46" si="8">VLOOKUP(F43,$A$41:$D$46,4,)</f>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>7423</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="15">
+        <v>7421</v>
+      </c>
+      <c r="G44" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>Alex Johnson</v>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>7424</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f>VLOOKUP(I4,C$4:F$9,2,)</f>
-        <v>Ritu Nayar</v>
-      </c>
-      <c r="K4" s="1" t="str">
-        <f>VLOOKUP(I4,C$4:F$9,3,)</f>
-        <v>Human Resources</v>
-      </c>
-      <c r="L4" s="1">
-        <f>VLOOKUP(I4,C$4:F$9,4,)</f>
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
-        <v>102</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>72000</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="F45" s="15">
+        <v>7422</v>
+      </c>
+      <c r="G45" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>Maria Garcia</v>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>7425</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f t="shared" ref="J5:J9" si="0">VLOOKUP(I5,C$4:F$9,2,)</f>
-        <v>Devika Raout</v>
-      </c>
-      <c r="K5" s="1" t="str">
-        <f t="shared" ref="K5:K9" si="1">VLOOKUP(I5,C$4:F$9,3,)</f>
-        <v>Testing</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" ref="L5:L9" si="2">VLOOKUP(I5,C$4:F$9,4,)</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
-        <v>103</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4">
-        <v>85000</v>
-      </c>
-      <c r="I6" s="3">
-        <v>103</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Ramesh Kumar</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Development</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4">
-        <v>68000</v>
-      </c>
-      <c r="I7" s="3">
-        <v>102</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Amrita Boas</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Marketing</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="2"/>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
-        <v>105</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>71000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>105</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Rachna Vyas</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Sales</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>71000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
-        <v>106</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4">
-        <v>90000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>101</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jay Thakre</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>QA</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="2"/>
-        <v>65000</v>
+      <c r="D46" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="15">
+        <v>7423</v>
+      </c>
+      <c r="G46" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>Ben Carter</v>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:G1"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{96C4ABBD-5512-4275-9377-B9CB8FEECF12}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{760198EB-3F54-42E0-8CA5-71BD606677E0}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{1D084298-1372-45B7-A7F4-C5E79F78CDB5}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{8AF066BA-2E6F-43EF-9DAA-AE4396B3AE71}"/>
+    <hyperlink ref="C29" r:id="rId5" xr:uid="{1A7C7DDD-6E3A-42C2-AE07-4F7997808502}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A060E67-A10E-47CC-B2C0-81D81BD37628}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,23 +1793,33 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -755,7 +1853,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>65000</v>
@@ -763,14 +1861,20 @@
       <c r="G4" s="3">
         <v>104</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>VLOOKUP(G4,A$4:D$9,4,)</f>
+      <c r="H4" s="1" t="str">
+        <f>HLOOKUP(H3,A3:D8,5,)</f>
+        <v>Human Resources</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>HLOOKUP(I3,B3:E8,5,)</f>
+        <v>Ritu Nayar</v>
+      </c>
+      <c r="J4" s="8">
+        <f>HLOOKUP(J3,C3:F8,5,)</f>
         <v>68000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -786,11 +1890,20 @@
       <c r="G5" s="3">
         <v>106</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="str">
+        <f>HLOOKUP(H3,A3:D8,6,)</f>
+        <v>Testing</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" ref="I5:J5" si="0">HLOOKUP(I3,B3:E8,6,)</f>
+        <v>Devika Raout</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -798,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4">
         <v>85000</v>
@@ -806,11 +1919,20 @@
       <c r="G6" s="3">
         <v>103</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="str">
+        <f>HLOOKUP(H3,A3:D8,4,)</f>
+        <v>Development</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>HLOOKUP(I3,B3:E8,4,)</f>
+        <v>Ramesh Kumar</v>
+      </c>
+      <c r="J6" s="8">
+        <f>HLOOKUP(J3,C3:F8,4,)</f>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -826,49 +1948,396 @@
       <c r="G7" s="3">
         <v>102</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="str">
+        <f>HLOOKUP(H3,A3:D8,3,)</f>
+        <v>Marketing</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>HLOOKUP(I3,B3:E8,3,)</f>
+        <v>Amrita Boas</v>
+      </c>
+      <c r="J7" s="8">
+        <f>HLOOKUP(J3,C3:F8,3,)</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>90000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>HLOOKUP(H3,A3:D8,2,)</f>
+        <v>QA</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" ref="I8:J8" si="1">HLOOKUP(I3,B3:E8,2,)</f>
+        <v>Jay Thakre</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4">
-        <v>71000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>105</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>106</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B13" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>55000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>62000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>58000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>70000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>65000</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <f>HLOOKUP(J12,$A$12:$G$15,2,)</f>
+        <v>50000</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13:O13" si="2">HLOOKUP(K12,$A$12:$G$15,2,)</f>
+        <v>55000</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>58000</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="2"/>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>25000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>28000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>29000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>35000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>32000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4">
+        <f>HLOOKUP(J12,$A$12:$G$15,4,)</f>
+        <v>25000</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14:O14" si="3">HLOOKUP(K12,$A$12:$G$15,4,)</f>
+        <v>27000</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>29000</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>35000</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>33000</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="3"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4">
+        <v>25000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>27000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>32000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>29000</v>
+      </c>
+      <c r="F15" s="4">
+        <v>35000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>33000</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4">
+        <f>HLOOKUP(J12,$A$12:$G$15,3,)</f>
+        <v>25000</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ref="K15:O15" si="4">HLOOKUP(K12,$A$12:$G$15,3,)</f>
+        <v>28000</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="4"/>
+        <v>29000</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="4"/>
+        <v>35000</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="4"/>
+        <v>32000</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="22">
+        <v>45931</v>
+      </c>
+      <c r="C19" s="22">
+        <v>45932</v>
+      </c>
+      <c r="D19" s="22">
+        <v>45933</v>
+      </c>
+      <c r="E19" s="22">
+        <v>45934</v>
+      </c>
+      <c r="F19" s="21">
+        <v>45935</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="23">
+        <v>45935</v>
+      </c>
+      <c r="K19" s="23">
+        <v>45932</v>
+      </c>
+      <c r="L19" s="23">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4">
-        <v>90000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>101</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f>HLOOKUP(J19,$A$19:$F$22,4,)</f>
+        <v>Ritu Nayar</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" ref="K20:L20" si="5">HLOOKUP(K19,$A$19:$F$22,4,)</f>
+        <v>Ramesh Kumar</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Devika Raout</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f>HLOOKUP(J19,$A$19:$F$22,2,)</f>
+        <v>Ramesh Kumar</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" ref="K21:L21" si="6">HLOOKUP(K19,$A$19:$F$22,2,)</f>
+        <v>Devika Raout</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Ramesh Kumar</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f>HLOOKUP(J19,$A$19:$F$22,3,)</f>
+        <v>Devika Raout</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" ref="K22:L22" si="7">HLOOKUP(K19,$A$19:$F$22,3,)</f>
+        <v>Ritu Nayar</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Ritu Nayar</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
